--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Il1rn-Il1r2.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Il1rn-Il1r2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,12 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -83,9 +89,6 @@
   </si>
   <si>
     <t>Il1r2</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>69.65551346177089</v>
+        <v>321.1890463333334</v>
       </c>
       <c r="H2">
-        <v>69.65551346177089</v>
+        <v>963.567139</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.8087719216371989</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.8087719216371989</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.919649035064912</v>
+        <v>263.9035463333333</v>
       </c>
       <c r="N2">
-        <v>0.919649035064912</v>
+        <v>791.710639</v>
       </c>
       <c r="O2">
-        <v>0.1258319838289154</v>
+        <v>0.9572387917213622</v>
       </c>
       <c r="P2">
-        <v>0.1258319838289154</v>
+        <v>0.9572387917213622</v>
       </c>
       <c r="Q2">
-        <v>64.0586257420686</v>
+        <v>84762.92837078798</v>
       </c>
       <c r="R2">
-        <v>64.0586257420686</v>
+        <v>762866.3553370918</v>
       </c>
       <c r="S2">
-        <v>0.1258319838289154</v>
+        <v>0.7741878570461564</v>
       </c>
       <c r="T2">
-        <v>0.1258319838289154</v>
+        <v>0.7741878570461564</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>69.65551346177089</v>
+        <v>321.1890463333334</v>
       </c>
       <c r="H3">
-        <v>69.65551346177089</v>
+        <v>963.567139</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.8087719216371989</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.8087719216371989</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.84733926357912</v>
+        <v>0.9720173333333334</v>
       </c>
       <c r="N3">
-        <v>5.84733926357912</v>
+        <v>2.916052</v>
       </c>
       <c r="O3">
-        <v>0.8000685822553336</v>
+        <v>0.003525730179150291</v>
       </c>
       <c r="P3">
-        <v>0.8000685822553336</v>
+        <v>0.003525730179150291</v>
       </c>
       <c r="Q3">
-        <v>407.2994187897769</v>
+        <v>312.2013203128031</v>
       </c>
       <c r="R3">
-        <v>407.2994187897769</v>
+        <v>2809.811882815228</v>
       </c>
       <c r="S3">
-        <v>0.8000685822553336</v>
+        <v>0.002851511572165647</v>
       </c>
       <c r="T3">
-        <v>0.8000685822553336</v>
+        <v>0.002851511572165647</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +646,619 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>321.1890463333334</v>
+      </c>
+      <c r="H4">
+        <v>963.567139</v>
+      </c>
+      <c r="I4">
+        <v>0.8087719216371989</v>
+      </c>
+      <c r="J4">
+        <v>0.8087719216371989</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>9.990833333333333</v>
+      </c>
+      <c r="N4">
+        <v>29.9725</v>
+      </c>
+      <c r="O4">
+        <v>0.03623904779290016</v>
+      </c>
+      <c r="P4">
+        <v>0.03623904779290017</v>
+      </c>
+      <c r="Q4">
+        <v>3208.946230408611</v>
+      </c>
+      <c r="R4">
+        <v>28880.5160736775</v>
+      </c>
+      <c r="S4">
+        <v>0.02930912432176615</v>
+      </c>
+      <c r="T4">
+        <v>0.02930912432176616</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>321.1890463333334</v>
+      </c>
+      <c r="H5">
+        <v>963.567139</v>
+      </c>
+      <c r="I5">
+        <v>0.8087719216371989</v>
+      </c>
+      <c r="J5">
+        <v>0.8087719216371989</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.8260933333333332</v>
+      </c>
+      <c r="N5">
+        <v>2.47828</v>
+      </c>
+      <c r="O5">
+        <v>0.002996430306587325</v>
+      </c>
+      <c r="P5">
+        <v>0.002996430306587325</v>
+      </c>
+      <c r="Q5">
+        <v>265.3321299156578</v>
+      </c>
+      <c r="R5">
+        <v>2387.98916924092</v>
+      </c>
+      <c r="S5">
+        <v>0.002423428697110572</v>
+      </c>
+      <c r="T5">
+        <v>0.002423428697110572</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.01352566666666667</v>
+      </c>
+      <c r="H6">
+        <v>0.040577</v>
+      </c>
+      <c r="I6">
+        <v>3.405838258279646E-05</v>
+      </c>
+      <c r="J6">
+        <v>3.405838258279647E-05</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>263.9035463333333</v>
+      </c>
+      <c r="N6">
+        <v>791.710639</v>
+      </c>
+      <c r="O6">
+        <v>0.9572387917213622</v>
+      </c>
+      <c r="P6">
+        <v>0.9572387917213622</v>
+      </c>
+      <c r="Q6">
+        <v>3.569471399855889</v>
+      </c>
+      <c r="R6">
+        <v>32.125242598703</v>
+      </c>
+      <c r="S6">
+        <v>3.260200499153997E-05</v>
+      </c>
+      <c r="T6">
+        <v>3.260200499153997E-05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.01352566666666667</v>
+      </c>
+      <c r="H7">
+        <v>0.040577</v>
+      </c>
+      <c r="I7">
+        <v>3.405838258279646E-05</v>
+      </c>
+      <c r="J7">
+        <v>3.405838258279647E-05</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.9720173333333334</v>
+      </c>
+      <c r="N7">
+        <v>2.916052</v>
+      </c>
+      <c r="O7">
+        <v>0.003525730179150291</v>
+      </c>
+      <c r="P7">
+        <v>0.003525730179150291</v>
+      </c>
+      <c r="Q7">
+        <v>0.01314718244488889</v>
+      </c>
+      <c r="R7">
+        <v>0.118324642004</v>
+      </c>
+      <c r="S7">
+        <v>1.200806673252121E-07</v>
+      </c>
+      <c r="T7">
+        <v>1.200806673252121E-07</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.01352566666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.040577</v>
+      </c>
+      <c r="I8">
+        <v>3.405838258279646E-05</v>
+      </c>
+      <c r="J8">
+        <v>3.405838258279647E-05</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>9.990833333333333</v>
+      </c>
+      <c r="N8">
+        <v>29.9725</v>
+      </c>
+      <c r="O8">
+        <v>0.03623904779290016</v>
+      </c>
+      <c r="P8">
+        <v>0.03623904779290017</v>
+      </c>
+      <c r="Q8">
+        <v>0.1351326813888889</v>
+      </c>
+      <c r="R8">
+        <v>1.2161941325</v>
+      </c>
+      <c r="S8">
+        <v>1.234243354166839E-06</v>
+      </c>
+      <c r="T8">
+        <v>1.23424335416684E-06</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>69.65551346177089</v>
-      </c>
-      <c r="H4">
-        <v>69.65551346177089</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>0.541559234988531</v>
-      </c>
-      <c r="N4">
-        <v>0.541559234988531</v>
-      </c>
-      <c r="O4">
-        <v>0.074099433915751</v>
-      </c>
-      <c r="P4">
-        <v>0.074099433915751</v>
-      </c>
-      <c r="Q4">
-        <v>37.72258658308996</v>
-      </c>
-      <c r="R4">
-        <v>37.72258658308996</v>
-      </c>
-      <c r="S4">
-        <v>0.074099433915751</v>
-      </c>
-      <c r="T4">
-        <v>0.074099433915751</v>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.01352566666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.040577</v>
+      </c>
+      <c r="I9">
+        <v>3.405838258279646E-05</v>
+      </c>
+      <c r="J9">
+        <v>3.405838258279647E-05</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.8260933333333332</v>
+      </c>
+      <c r="N9">
+        <v>2.47828</v>
+      </c>
+      <c r="O9">
+        <v>0.002996430306587325</v>
+      </c>
+      <c r="P9">
+        <v>0.002996430306587325</v>
+      </c>
+      <c r="Q9">
+        <v>0.01117346306222222</v>
+      </c>
+      <c r="R9">
+        <v>0.10056116756</v>
+      </c>
+      <c r="S9">
+        <v>1.020535697644372E-07</v>
+      </c>
+      <c r="T9">
+        <v>1.020535697644372E-07</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>75.92922466666666</v>
+      </c>
+      <c r="H10">
+        <v>227.787674</v>
+      </c>
+      <c r="I10">
+        <v>0.1911940199802183</v>
+      </c>
+      <c r="J10">
+        <v>0.1911940199802183</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>263.9035463333333</v>
+      </c>
+      <c r="N10">
+        <v>791.710639</v>
+      </c>
+      <c r="O10">
+        <v>0.9572387917213622</v>
+      </c>
+      <c r="P10">
+        <v>0.9572387917213622</v>
+      </c>
+      <c r="Q10">
+        <v>20037.99165987374</v>
+      </c>
+      <c r="R10">
+        <v>180341.9249388637</v>
+      </c>
+      <c r="S10">
+        <v>0.1830183326702141</v>
+      </c>
+      <c r="T10">
+        <v>0.1830183326702142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>75.92922466666666</v>
+      </c>
+      <c r="H11">
+        <v>227.787674</v>
+      </c>
+      <c r="I11">
+        <v>0.1911940199802183</v>
+      </c>
+      <c r="J11">
+        <v>0.1911940199802183</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.9720173333333334</v>
+      </c>
+      <c r="N11">
+        <v>2.916052</v>
+      </c>
+      <c r="O11">
+        <v>0.003525730179150291</v>
+      </c>
+      <c r="P11">
+        <v>0.003525730179150291</v>
+      </c>
+      <c r="Q11">
+        <v>73.80452248256088</v>
+      </c>
+      <c r="R11">
+        <v>664.2407023430479</v>
+      </c>
+      <c r="S11">
+        <v>0.0006740985263173194</v>
+      </c>
+      <c r="T11">
+        <v>0.0006740985263173195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>75.92922466666666</v>
+      </c>
+      <c r="H12">
+        <v>227.787674</v>
+      </c>
+      <c r="I12">
+        <v>0.1911940199802183</v>
+      </c>
+      <c r="J12">
+        <v>0.1911940199802183</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>9.990833333333333</v>
+      </c>
+      <c r="N12">
+        <v>29.9725</v>
+      </c>
+      <c r="O12">
+        <v>0.03623904779290016</v>
+      </c>
+      <c r="P12">
+        <v>0.03623904779290017</v>
+      </c>
+      <c r="Q12">
+        <v>758.5962287738887</v>
+      </c>
+      <c r="R12">
+        <v>6827.366058965</v>
+      </c>
+      <c r="S12">
+        <v>0.006928689227779838</v>
+      </c>
+      <c r="T12">
+        <v>0.006928689227779841</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>75.92922466666666</v>
+      </c>
+      <c r="H13">
+        <v>227.787674</v>
+      </c>
+      <c r="I13">
+        <v>0.1911940199802183</v>
+      </c>
+      <c r="J13">
+        <v>0.1911940199802183</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.8260933333333332</v>
+      </c>
+      <c r="N13">
+        <v>2.47828</v>
+      </c>
+      <c r="O13">
+        <v>0.002996430306587325</v>
+      </c>
+      <c r="P13">
+        <v>0.002996430306587325</v>
+      </c>
+      <c r="Q13">
+        <v>62.72462630230221</v>
+      </c>
+      <c r="R13">
+        <v>564.5216367207199</v>
+      </c>
+      <c r="S13">
+        <v>0.0005728995559069886</v>
+      </c>
+      <c r="T13">
+        <v>0.0005728995559069888</v>
       </c>
     </row>
   </sheetData>
